--- a/worktest/mybook.xlsx
+++ b/worktest/mybook.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\snippet_create\worktest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python\snippet_create\worktest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AEF8C4-BBF7-43B4-84C9-7BB00EE053C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBC2886-4B82-4E66-ACD2-F6114DCBB416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{6CB45197-86F8-4C9A-B306-29DF171C95AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CB45197-86F8-4C9A-B306-29DF171C95AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -83,10 +83,77 @@
 </styleSheet>
 </file>
 
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>123825</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="CommandButton1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -124,7 +191,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -230,7 +297,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -379,16 +446,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A5797-B963-4C6C-8C90-5782320FA190}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A5797-B963-4C6C-8C90-5782320FA190}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId3" name="CommandButton1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId3" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/worktest/mybook.xlsx
+++ b/worktest/mybook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\python\snippet_create\worktest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBC2886-4B82-4E66-ACD2-F6114DCBB416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945A706E-6385-4FA2-B59D-0884E8315D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6CB45197-86F8-4C9A-B306-29DF171C95AC}"/>
   </bookViews>
